--- a/src/main/java/com/test/automation/TestData/TestData.xlsx
+++ b/src/main/java/com/test/automation/TestData/TestData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
   <si>
     <t>User Name</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Please enter UserId</t>
+  </si>
+  <si>
+    <t>Sl. No.</t>
   </si>
 </sst>
 </file>
@@ -461,160 +464,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="4" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
